--- a/HEBCard/Documentos/Diseño/ABCSocios/Matriz-PU - Enabling_ABCSocios_HEBCard.xlsx
+++ b/HEBCard/Documentos/Diseño/ABCSocios/Matriz-PU - Enabling_ABCSocios_HEBCard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\HEB\HEBCard\Documentos\Diseño\ABCSocios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\HEB-HUB\HEBCard\Documentos\Diseño\ABCSocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D64377-B494-4E77-8C4E-5032A0521E3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812089C-9065-4948-B287-19310C0334B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <definedName name="lider">[1]Factores!$M$3:$M$14</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">Portada!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <r>
       <t xml:space="preserve">Control de Versiones </t>
@@ -155,9 +155,6 @@
     <t>FR1</t>
   </si>
   <si>
-    <t>FR2</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -179,13 +176,7 @@
     <t>Alto volumen de OC</t>
   </si>
   <si>
-    <t xml:space="preserve">Email de notificacion de error, registro almacenado en la tabla TIB_TRACKLOGGER </t>
-  </si>
-  <si>
     <t>Credenciales no validas para ejecutar el recurso</t>
-  </si>
-  <si>
-    <t>PeopleSoftRHCatalogoSociosToHEBCard</t>
   </si>
   <si>
     <t>E3</t>
@@ -198,9 +189,6 @@
   </si>
   <si>
     <t>FR1, FR5</t>
-  </si>
-  <si>
-    <t>FR3</t>
   </si>
   <si>
     <t>E5</t>
@@ -227,19 +215,49 @@
     <t>Comunicar y auditar cambio socio</t>
   </si>
   <si>
-    <t xml:space="preserve">Conexión fallida hacia el servidor de EMS  </t>
-  </si>
-  <si>
     <t>1.-Integracion toma los registros pendientes de la base de datos PS-RH .                                                                                 2.-Inyecta los registros al recurso (http://&lt;&lt;HOST&gt;&gt;:&lt;&lt;PORT&gt;&gt;/hebcard-api/v1/employee).                                                                       3.-HEBCard registra los socios en la base de datos                                                        4.- Los registros de audit son almacenados en la base de datos</t>
   </si>
   <si>
-    <t xml:space="preserve">1.-.-Integracion toma los registros pendientes de la base de datos PS-RH .                                                                                        2.-Se notifican incidente de conexion a EMS a las areas involucradas.                                          3.- El error es registrado en la tabla TIB_TRACKLOGGER                                                                        </t>
+    <t xml:space="preserve">Transaccion de socio en la base de datos de HEBCard, registro en la tabla TIB_TRACKLOGGER </t>
   </si>
   <si>
-    <t xml:space="preserve">1.-.-Integracion toma los registros pendientes de la base de datos PS-RH .                                                                                          2.-Se notifican incidente de seguridad a las areas involucradas.                                                             3.- El error es registrado en la tabla TIB_TRACKLOGGER                                                                        </t>
+    <t>PSRHPartnerToHEBCard</t>
   </si>
   <si>
-    <t xml:space="preserve">Transaccion de socio en la base de datos de HEBCard, registro en la tabla TIB_TRACKLOGGER </t>
+    <t>Transaccion de socio en la base de datos de HEBCard, registro en la tabla TIB_LOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexión fallida hacia el servidor de Oracle PS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.-.-Integracion toma los registros pendientes de la base de datos PS-RH .                                                                                        2.-Se notifican incidente de conexion a EMS a las areas involucradas.                                          3.- El error es registrado en la tabla TIB_LOG_EXCEPTION                                                                        </t>
+  </si>
+  <si>
+    <t>Email de notificacion de error, registro almacenado en la tabla TIB_LOG_EXCEPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.-.-Integracion toma los registros pendientes de la base de datos PS-RH .                                                                                          2.-Se notifican incidente de seguridad a las areas involucradas.                                                             3.- El error es registrado en la tabla TIB_LOG_EXCEPTION                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email de notificacion de error, registro almacenado en la tabla TIB_LOG_EXCEPTION </t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>FR2, FR5</t>
+  </si>
+  <si>
+    <t>FR3, FR5</t>
+  </si>
+  <si>
+    <t>Recontratacion</t>
+  </si>
+  <si>
+    <t>Modificar socio dado de baja</t>
   </si>
 </sst>
 </file>
@@ -645,24 +663,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -676,14 +691,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3065,7 +3083,7 @@
                 </a:effectLst>
                 <a:latin typeface="Candara" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>PeopleSoftRHCatalogoSociosToHEBCard</a:t>
+              <a:t>PSRHPartnerToHEBCard</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3495,8 +3513,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="B5:N80" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B5:N80" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="B5:N82" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B5:N82" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Artefacto / Modulo" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Prueba ID" dataDxfId="11"/>
@@ -3870,12 +3888,12 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="2:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
@@ -3925,12 +3943,12 @@
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="2:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
@@ -3991,11 +4009,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:N652"/>
+  <dimension ref="B1:N654"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4018,32 +4036,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="20" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="2:14" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="22">
         <f>COUNTA(Tabla4[Prueba ID])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>9</v>
@@ -4067,8 +4085,8 @@
       <c r="B3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
@@ -4150,28 +4168,28 @@
     </row>
     <row r="6" spans="2:14" s="29" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="33"/>
@@ -4181,184 +4199,216 @@
     </row>
     <row r="7" spans="2:14" s="29" customFormat="1" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="30" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="56" t="s">
-        <v>57</v>
-      </c>
       <c r="I7" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+        <v>55</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
     </row>
     <row r="8" spans="2:14" s="29" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+    </row>
+    <row r="9" spans="2:14" s="29" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="H9" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="56" t="s">
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+    </row>
+    <row r="10" spans="2:14" s="38" customFormat="1" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-    </row>
-    <row r="9" spans="2:14" s="38" customFormat="1" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="57" t="s">
+      <c r="I10" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="2:14" s="38" customFormat="1" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="37"/>
-    </row>
-    <row r="10" spans="2:14" s="38" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="56" t="s">
+      <c r="G11" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="56" t="s">
         <v>59</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="58"/>
-    </row>
-    <row r="11" spans="2:14" s="44" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>57</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="43"/>
-    </row>
-    <row r="12" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="2:14" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="35"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="69"/>
+    </row>
+    <row r="12" spans="2:14" s="38" customFormat="1" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="69"/>
+    </row>
+    <row r="13" spans="2:14" s="44" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="36"/>
       <c r="K13" s="33"/>
       <c r="L13" s="34"/>
       <c r="M13" s="33"/>
@@ -4379,7 +4429,7 @@
       <c r="M14" s="33"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -4389,10 +4439,10 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
@@ -4403,13 +4453,13 @@
       <c r="G16" s="35"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="37"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="37"/>
     </row>
-    <row r="17" spans="2:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -4418,86 +4468,86 @@
       <c r="G17" s="35"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="37"/>
       <c r="L17" s="45"/>
       <c r="M17" s="37"/>
-      <c r="N17" s="40"/>
-    </row>
-    <row r="18" spans="2:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="37"/>
       <c r="L18" s="45"/>
       <c r="M18" s="37"/>
-      <c r="N18" s="40"/>
-    </row>
-    <row r="19" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="2:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="41"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="40"/>
     </row>
-    <row r="20" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="40"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="30"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
@@ -4547,13 +4597,13 @@
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
@@ -4562,13 +4612,13 @@
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
@@ -4950,7 +5000,7 @@
       <c r="N52" s="47"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="40"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
@@ -4965,7 +5015,7 @@
       <c r="N53" s="47"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="40"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
       <c r="E54" s="47"/>
@@ -5369,112 +5419,128 @@
       <c r="M80" s="47"/>
       <c r="N80" s="47"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="42"/>
-      <c r="D81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="42"/>
-      <c r="D82" s="51"/>
-      <c r="F82" s="51"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="51"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B81" s="40"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="40"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="42"/>
       <c r="D83" s="51"/>
       <c r="F83" s="51"/>
       <c r="I83" s="51"/>
       <c r="J83" s="51"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="42"/>
       <c r="D84" s="51"/>
       <c r="F84" s="51"/>
       <c r="I84" s="51"/>
       <c r="J84" s="51"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="42"/>
       <c r="D85" s="51"/>
       <c r="F85" s="51"/>
       <c r="I85" s="51"/>
       <c r="J85" s="51"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="42"/>
       <c r="D86" s="51"/>
       <c r="F86" s="51"/>
       <c r="I86" s="51"/>
       <c r="J86" s="51"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="42"/>
       <c r="D87" s="51"/>
       <c r="F87" s="51"/>
       <c r="I87" s="51"/>
       <c r="J87" s="51"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="42"/>
       <c r="D88" s="51"/>
       <c r="F88" s="51"/>
       <c r="I88" s="51"/>
       <c r="J88" s="51"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="42"/>
       <c r="D89" s="51"/>
       <c r="F89" s="51"/>
       <c r="I89" s="51"/>
       <c r="J89" s="51"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="42"/>
       <c r="D90" s="51"/>
       <c r="F90" s="51"/>
       <c r="I90" s="51"/>
       <c r="J90" s="51"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="42"/>
       <c r="D91" s="51"/>
       <c r="F91" s="51"/>
       <c r="I91" s="51"/>
       <c r="J91" s="51"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="42"/>
       <c r="D92" s="51"/>
       <c r="F92" s="51"/>
       <c r="I92" s="51"/>
       <c r="J92" s="51"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="42"/>
       <c r="D93" s="51"/>
       <c r="F93" s="51"/>
       <c r="I93" s="51"/>
       <c r="J93" s="51"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="42"/>
       <c r="D94" s="51"/>
       <c r="F94" s="51"/>
       <c r="I94" s="51"/>
       <c r="J94" s="51"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="42"/>
       <c r="D95" s="51"/>
       <c r="F95" s="51"/>
       <c r="I95" s="51"/>
       <c r="J95" s="51"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="42"/>
       <c r="D96" s="51"/>
       <c r="F96" s="51"/>
@@ -9372,6 +9438,20 @@
       <c r="F652" s="51"/>
       <c r="I652" s="51"/>
       <c r="J652" s="51"/>
+    </row>
+    <row r="653" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B653" s="42"/>
+      <c r="D653" s="51"/>
+      <c r="F653" s="51"/>
+      <c r="I653" s="51"/>
+      <c r="J653" s="51"/>
+    </row>
+    <row r="654" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B654" s="42"/>
+      <c r="D654" s="51"/>
+      <c r="F654" s="51"/>
+      <c r="I654" s="51"/>
+      <c r="J654" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9396,15 +9476,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1D0DBFA487399459D76A023187EA095" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="022cb1503ac13df67fbd6b65dbba2877">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84d24c2467e79a5b957f305a830827c0">
     <xsd:element name="properties">
@@ -9453,6 +9524,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C9FD73F-3FFE-4E42-9B07-F3A6B5B6D3F3}">
   <ds:schemaRefs>
@@ -9462,14 +9542,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA254BC-3BEB-4A5D-8FA1-851F5C007D53}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C67A0A5-A060-4DA7-8F4B-77F53ABB93D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9482,4 +9554,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA254BC-3BEB-4A5D-8FA1-851F5C007D53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/HEBCard/Documentos/Diseño/ABCSocios/Matriz-PU - Enabling_ABCSocios_HEBCard.xlsx
+++ b/HEBCard/Documentos/Diseño/ABCSocios/Matriz-PU - Enabling_ABCSocios_HEBCard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\HEB-HUB\HEBCard\Documentos\Diseño\ABCSocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812089C-9065-4948-B287-19310C0334B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5D7226-FC84-4530-ABE6-E3BF5F32F73D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <r>
       <t xml:space="preserve">Control de Versiones </t>
@@ -152,12 +152,6 @@
     <t>Luis Castor</t>
   </si>
   <si>
-    <t>FR1</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sin permisos HEB Security </t>
-  </si>
-  <si>
-    <t>Alto volumen de OC</t>
   </si>
   <si>
     <t>Credenciales no validas para ejecutar el recurso</t>
@@ -218,9 +209,6 @@
     <t>1.-Integracion toma los registros pendientes de la base de datos PS-RH .                                                                                 2.-Inyecta los registros al recurso (http://&lt;&lt;HOST&gt;&gt;:&lt;&lt;PORT&gt;&gt;/hebcard-api/v1/employee).                                                                       3.-HEBCard registra los socios en la base de datos                                                        4.- Los registros de audit son almacenados en la base de datos</t>
   </si>
   <si>
-    <t xml:space="preserve">Transaccion de socio en la base de datos de HEBCard, registro en la tabla TIB_TRACKLOGGER </t>
-  </si>
-  <si>
     <t>PSRHPartnerToHEBCard</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
   </si>
   <si>
     <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
   </si>
   <si>
     <t>FR2, FR5</t>
@@ -681,15 +666,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -704,6 +680,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3513,8 +3498,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="B5:N82" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B5:N82" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="B5:N81" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B5:N81" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Artefacto / Modulo" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Prueba ID" dataDxfId="11"/>
@@ -3888,12 +3873,12 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="2:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
@@ -3943,12 +3928,12 @@
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
     </row>
     <row r="13" spans="2:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
@@ -4009,11 +3994,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:N654"/>
+  <dimension ref="B1:N653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4036,32 +4021,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="20" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="2" spans="2:14" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="22">
         <f>COUNTA(Tabla4[Prueba ID])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>9</v>
@@ -4085,8 +4070,8 @@
       <c r="B3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
@@ -4168,28 +4153,28 @@
     </row>
     <row r="6" spans="2:14" s="29" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="33"/>
@@ -4199,28 +4184,28 @@
     </row>
     <row r="7" spans="2:14" s="29" customFormat="1" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J7" s="60"/>
       <c r="K7" s="61"/>
@@ -4230,28 +4215,28 @@
     </row>
     <row r="8" spans="2:14" s="29" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F8" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="56" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>55</v>
       </c>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
@@ -4261,28 +4246,28 @@
     </row>
     <row r="9" spans="2:14" s="29" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>60</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
@@ -4292,28 +4277,28 @@
     </row>
     <row r="10" spans="2:14" s="38" customFormat="1" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="56" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>58</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="33"/>
@@ -4323,98 +4308,82 @@
     </row>
     <row r="11" spans="2:14" s="38" customFormat="1" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="68"/>
+        <v>56</v>
+      </c>
+      <c r="J11" s="65"/>
       <c r="K11" s="61"/>
       <c r="L11" s="62"/>
       <c r="M11" s="61"/>
-      <c r="N11" s="69"/>
+      <c r="N11" s="66"/>
     </row>
     <row r="12" spans="2:14" s="38" customFormat="1" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="G12" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="56" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="68"/>
+        <v>56</v>
+      </c>
+      <c r="J12" s="65"/>
       <c r="K12" s="61"/>
       <c r="L12" s="62"/>
       <c r="M12" s="61"/>
-      <c r="N12" s="69"/>
-    </row>
-    <row r="13" spans="2:14" s="44" customFormat="1" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="36"/>
+      <c r="N12" s="66"/>
+    </row>
+    <row r="13" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="33"/>
       <c r="L13" s="34"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="2:14" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -4427,9 +4396,9 @@
       <c r="K14" s="33"/>
       <c r="L14" s="34"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="37"/>
-    </row>
-    <row r="15" spans="2:14" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N14" s="43"/>
+    </row>
+    <row r="15" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -4442,7 +4411,7 @@
       <c r="K15" s="33"/>
       <c r="L15" s="34"/>
       <c r="M15" s="33"/>
-      <c r="N15" s="43"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
@@ -4454,9 +4423,9 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="33"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="37"/>
     </row>
     <row r="17" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4468,13 +4437,13 @@
       <c r="G17" s="35"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="37"/>
       <c r="L17" s="45"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
     </row>
-    <row r="18" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -4483,40 +4452,40 @@
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="37"/>
       <c r="L18" s="45"/>
       <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" spans="2:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="37"/>
       <c r="L19" s="45"/>
       <c r="M19" s="37"/>
       <c r="N19" s="40"/>
     </row>
-    <row r="20" spans="2:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="37"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -4534,20 +4503,20 @@
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
     </row>
-    <row r="22" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
@@ -4612,13 +4581,13 @@
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="47"/>
-      <c r="F27" s="49"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
@@ -5015,7 +4984,7 @@
       <c r="N53" s="47"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="30"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
       <c r="E54" s="47"/>
@@ -5435,19 +5404,11 @@
       <c r="N81" s="47"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B82" s="40"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
+      <c r="B82" s="42"/>
+      <c r="D82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="42"/>
@@ -9445,13 +9406,6 @@
       <c r="F653" s="51"/>
       <c r="I653" s="51"/>
       <c r="J653" s="51"/>
-    </row>
-    <row r="654" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B654" s="42"/>
-      <c r="D654" s="51"/>
-      <c r="F654" s="51"/>
-      <c r="I654" s="51"/>
-      <c r="J654" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9470,9 +9424,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9525,18 +9482,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C9FD73F-3FFE-4E42-9B07-F3A6B5B6D3F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA254BC-3BEB-4A5D-8FA1-851F5C007D53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9557,9 +9511,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA254BC-3BEB-4A5D-8FA1-851F5C007D53}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C9FD73F-3FFE-4E42-9B07-F3A6B5B6D3F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>